--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>PROJETO</t>
   </si>
@@ -41,6 +43,33 @@
   </si>
   <si>
     <t>CVO</t>
+  </si>
+  <si>
+    <t>especie</t>
+  </si>
+  <si>
+    <t>trat</t>
+  </si>
+  <si>
+    <t>doses_npk</t>
+  </si>
+  <si>
+    <t>producao</t>
+  </si>
+  <si>
+    <t>repeticao</t>
+  </si>
+  <si>
+    <t>inv_idade</t>
+  </si>
+  <si>
+    <t>ln_volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>idade</t>
   </si>
 </sst>
 </file>
@@ -64,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,13 +101,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -174,23 +221,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -226,23 +256,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -766,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1293,4 +1306,845 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C2</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" ref="A6:A31" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C16" si="1">C3</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <f>C17</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:C31" si="2">C18</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="H10:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.1354942159291497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>60</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.0943445622221004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100.9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.6141299273595635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.9052747784384296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>161</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.0814043649844631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>179</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.1873858058407549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.3025850929940459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.784189633918261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.3694478524670215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>107.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.6765601820747644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>126.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.8433993747203417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>138.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.9337542497602982</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>